--- a/r4-core-refs/pull/38/merge/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-refs/pull/38/merge/CodeSystem-at-core-cs-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T13:50:13+00:00</t>
+    <t>2021-11-26T13:52:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
